--- a/data/trans_dic/P62A$jubilacion-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8471565564069131</v>
+        <v>0.8425708968297376</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.71137061755385</v>
+        <v>0.7092465893666821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8003586622350589</v>
+        <v>0.8013154119594446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4805695465748299</v>
+        <v>0.4798620641242432</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4093753984701719</v>
+        <v>0.4012029691548363</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3492116147934981</v>
+        <v>0.3531690962850206</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3875528691990861</v>
+        <v>0.3882703473788418</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2487546402736769</v>
+        <v>0.2486195903384685</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6686924966424791</v>
+        <v>0.6668328414265091</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5705241022411968</v>
+        <v>0.5704833954309757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6375733140170055</v>
+        <v>0.6315958077032069</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3882646631754776</v>
+        <v>0.3845923285969931</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9374387925750953</v>
+        <v>0.9366415465400043</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8384605095405214</v>
+        <v>0.8390823844998221</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9070315998431117</v>
+        <v>0.9079943480339377</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6095323388513452</v>
+        <v>0.6098791099666735</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5748299604266968</v>
+        <v>0.5723522209894811</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5046553290865491</v>
+        <v>0.5034543321729796</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5565258000693227</v>
+        <v>0.5496189755957138</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3393418673818386</v>
+        <v>0.3412378409572034</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.772293387624337</v>
+        <v>0.7652092917328064</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6728659302491682</v>
+        <v>0.6727062985923874</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7380772726346144</v>
+        <v>0.7333432387439525</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4684573448608712</v>
+        <v>0.4652693273926739</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8091027643117364</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5296006969433609</v>
+        <v>0.529600696943361</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.281879321978618</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8520678029463722</v>
+        <v>0.8519052657668346</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6654337504444175</v>
+        <v>0.6704586136751866</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.758677399767186</v>
+        <v>0.7582159632019557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4657630225038739</v>
+        <v>0.4685983899521881</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2115034903395721</v>
+        <v>0.2073294703687693</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2894782354346039</v>
+        <v>0.2913738732217168</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3936966771889185</v>
+        <v>0.3913444172912072</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2443013384771545</v>
+        <v>0.242715004164096</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.59355024242083</v>
+        <v>0.5950919028527983</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5144143853953471</v>
+        <v>0.5138808678046191</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6050704000980828</v>
+        <v>0.610647375935597</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3756590986375822</v>
+        <v>0.3712909933194287</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9312312200595956</v>
+        <v>0.935926166554514</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7860101255187177</v>
+        <v>0.7892363049656554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8547785328110391</v>
+        <v>0.8505477378470436</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5859272957397603</v>
+        <v>0.5878134944796962</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3550059752087766</v>
+        <v>0.353102727402409</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4294842661690545</v>
+        <v>0.432728469129035</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5415942736745962</v>
+        <v>0.5432036483895684</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3409697252226866</v>
+        <v>0.3386684251021327</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6956193427266268</v>
+        <v>0.6969675467979445</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6106595822831481</v>
+        <v>0.6071726538055779</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6970319717161884</v>
+        <v>0.7000701817457047</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4567138433690812</v>
+        <v>0.4512857724669231</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8545282835574757</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5267972353331345</v>
+        <v>0.5267972353331346</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3743502583604725</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8012135290342988</v>
+        <v>0.7963257168695728</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6503589318288048</v>
+        <v>0.6568733417692455</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7958567428681816</v>
+        <v>0.7913451162424316</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4628659176126665</v>
+        <v>0.4633713528314616</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2916480447811067</v>
+        <v>0.2943252658231301</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2013268372590747</v>
+        <v>0.1986967185635773</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3297559616134594</v>
+        <v>0.3351752109970441</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2410175047425448</v>
+        <v>0.250834894822708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5888658523939867</v>
+        <v>0.5885126371928886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4589479424440502</v>
+        <v>0.457653229911075</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6098369578340614</v>
+        <v>0.6158947215578232</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3869201847654545</v>
+        <v>0.383422363517232</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9092677345858402</v>
+        <v>0.9097712622159031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7992928839179306</v>
+        <v>0.7983768162429405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9052888134441603</v>
+        <v>0.9045709570901316</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5928321987275164</v>
+        <v>0.5963482413572415</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4675803235002103</v>
+        <v>0.4659169640073372</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3537206754813557</v>
+        <v>0.3555355825729244</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5149735164693983</v>
+        <v>0.5193666581633608</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.358441870712039</v>
+        <v>0.3628374368295586</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7012499542276153</v>
+        <v>0.704159043635786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5795684057626528</v>
+        <v>0.5800881627287948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7195238682862384</v>
+        <v>0.7272206186809707</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.481453568106469</v>
+        <v>0.4743301078017763</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.6162947795665288</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4332735479613366</v>
+        <v>0.4332735479613365</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8509309126804532</v>
+        <v>0.8477867566567184</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7480700846854804</v>
+        <v>0.7438970944848339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7723354839822797</v>
+        <v>0.7675946994354179</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4406823657134613</v>
+        <v>0.4298906940493674</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3531778455218192</v>
+        <v>0.3528625090233561</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.292500246199385</v>
+        <v>0.2904117015457791</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3259529822344069</v>
+        <v>0.3286616893145193</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3312785520815674</v>
+        <v>0.3342122319881211</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6195981907464665</v>
+        <v>0.6234931273949064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5416449157616038</v>
+        <v>0.5464241857756618</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5782197582300673</v>
+        <v>0.5713545323899555</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3949109806207574</v>
+        <v>0.3969269748589023</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9410392849015423</v>
+        <v>0.9399146134522536</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8645094623738703</v>
+        <v>0.8568405391662881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8672978013973165</v>
+        <v>0.8700932737019264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5434313290300109</v>
+        <v>0.5450635805676328</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.507201569760093</v>
+        <v>0.505038301715058</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4225850372239229</v>
+        <v>0.4257154885969895</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4630194998448244</v>
+        <v>0.4609683402911114</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4289100363953057</v>
+        <v>0.4271415629617167</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7209004447110706</v>
+        <v>0.7253352345143391</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6341855687933022</v>
+        <v>0.6404493693276198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6653759813283922</v>
+        <v>0.6586083644792832</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4673880082885925</v>
+        <v>0.4712674720018442</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8666245858242334</v>
+        <v>0.8659715833808598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7351277119032116</v>
+        <v>0.7331375675889042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8084283891039097</v>
+        <v>0.8080205833460281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4943884720515848</v>
+        <v>0.4926624636743806</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3232415195280267</v>
+        <v>0.3214452472318024</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3941497495051181</v>
+        <v>0.3929548177986558</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.295365616729426</v>
+        <v>0.2962072901321138</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6468242361207818</v>
+        <v>0.6434323146034792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5512540068406655</v>
+        <v>0.5532218172313791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.626063172720514</v>
+        <v>0.6295766450838158</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4069880697762037</v>
+        <v>0.4062266150822802</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9107012951576557</v>
+        <v>0.9116667862157328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7962191315817851</v>
+        <v>0.7933918291184787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8607332809633877</v>
+        <v>0.8614011062200717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5522007577735325</v>
+        <v>0.5548775517660282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3940327921908051</v>
+        <v>0.3929030334993346</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4696533886420135</v>
+        <v>0.469747276393998</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.345808937132716</v>
+        <v>0.3455023967037028</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6967245768226348</v>
+        <v>0.6983512560598782</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6029920275792126</v>
+        <v>0.6041042273084907</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6776167651800175</v>
+        <v>0.6767869663156516</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4479586011921285</v>
+        <v>0.4489520418757255</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>144957</v>
+        <v>144172</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>150428</v>
+        <v>149979</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>151662</v>
+        <v>151843</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>94492</v>
+        <v>94352</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51846</v>
+        <v>50811</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>57279</v>
+        <v>57929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>57792</v>
+        <v>57899</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>45098</v>
+        <v>45073</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>199108</v>
+        <v>198554</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>214225</v>
+        <v>214210</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>215891</v>
+        <v>213867</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>146732</v>
+        <v>145344</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160405</v>
+        <v>160269</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>177303</v>
+        <v>177434</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>171875</v>
+        <v>172058</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>119849</v>
+        <v>119917</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>72800</v>
+        <v>72487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>82776</v>
+        <v>82579</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>82990</v>
+        <v>81960</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>61521</v>
+        <v>61864</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>229956</v>
+        <v>227846</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>252653</v>
+        <v>252593</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>249923</v>
+        <v>248320</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>177038</v>
+        <v>175834</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>189603</v>
+        <v>189567</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>163858</v>
+        <v>165096</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>200757</v>
+        <v>200635</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>102254</v>
+        <v>102877</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>32441</v>
+        <v>31801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>60718</v>
+        <v>61116</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>80257</v>
+        <v>79778</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49705</v>
+        <v>49383</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>223119</v>
+        <v>223698</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>234569</v>
+        <v>234326</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>283457</v>
+        <v>286070</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>158904</v>
+        <v>157056</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>207219</v>
+        <v>208263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>193549</v>
+        <v>194344</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>226187</v>
+        <v>225068</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>128635</v>
+        <v>129049</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>54452</v>
+        <v>54160</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>90084</v>
+        <v>90765</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>110407</v>
+        <v>110735</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>69373</v>
+        <v>68905</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>261487</v>
+        <v>261994</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>278456</v>
+        <v>276866</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>326539</v>
+        <v>327962</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>193190</v>
+        <v>190894</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123695</v>
+        <v>122940</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>109742</v>
+        <v>110841</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>144902</v>
+        <v>144081</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>104817</v>
+        <v>104932</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34941</v>
+        <v>35262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29771</v>
+        <v>29382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44667</v>
+        <v>45401</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>39128</v>
+        <v>40722</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>161462</v>
+        <v>161365</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>145309</v>
+        <v>144899</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>193638</v>
+        <v>195562</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>150434</v>
+        <v>149074</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>140376</v>
+        <v>140454</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134873</v>
+        <v>134719</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>164827</v>
+        <v>164696</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>134249</v>
+        <v>135045</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56019</v>
+        <v>55820</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52306</v>
+        <v>52574</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>69755</v>
+        <v>70350</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>58191</v>
+        <v>58905</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>192276</v>
+        <v>193074</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>183499</v>
+        <v>183664</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>228467</v>
+        <v>230911</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>187188</v>
+        <v>184419</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>161558</v>
+        <v>160961</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>183030</v>
+        <v>182009</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>204711</v>
+        <v>203454</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>102164</v>
+        <v>99662</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>62247</v>
+        <v>62191</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65648</v>
+        <v>65179</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>81036</v>
+        <v>81710</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>85056</v>
+        <v>85809</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>226839</v>
+        <v>228265</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>254090</v>
+        <v>256332</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>297012</v>
+        <v>293486</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>192946</v>
+        <v>193931</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>178666</v>
+        <v>178452</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>211520</v>
+        <v>209643</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>229881</v>
+        <v>230622</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>125984</v>
+        <v>126363</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89393</v>
+        <v>89012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>94844</v>
+        <v>95547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>115113</v>
+        <v>114603</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>110123</v>
+        <v>109669</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>263927</v>
+        <v>265550</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>297502</v>
+        <v>300440</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>341782</v>
+        <v>338305</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>228357</v>
+        <v>230253</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>639461</v>
+        <v>638979</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>640382</v>
+        <v>638648</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>728582</v>
+        <v>728215</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>432318</v>
+        <v>430809</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>241166</v>
+        <v>239826</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>290505</v>
+        <v>289624</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>237429</v>
+        <v>238106</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>849902</v>
+        <v>845445</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>891489</v>
+        <v>894671</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1025664</v>
+        <v>1031420</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>683047</v>
+        <v>681769</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>671984</v>
+        <v>672696</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>693599</v>
+        <v>691136</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>775721</v>
+        <v>776323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>482872</v>
+        <v>485213</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>293982</v>
+        <v>293139</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>346154</v>
+        <v>346223</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>277978</v>
+        <v>277731</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>915469</v>
+        <v>917606</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>975160</v>
+        <v>976959</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1110123</v>
+        <v>1108763</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>751808</v>
+        <v>753475</v>
       </c>
     </row>
     <row r="24">
